--- a/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7038015665640924</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6766596925859883</v>
+        <v>0.6766596925859882</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6564743836572111</v>
@@ -685,7 +685,7 @@
         <v>0.5994020811813827</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6020687259621235</v>
+        <v>0.6020687259621237</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6887914752858803</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7008030956336601</v>
+        <v>0.7010404638387621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6227948868572694</v>
+        <v>0.6213839897061998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.669884015651629</v>
+        <v>0.6711839598691431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6379534719064778</v>
+        <v>0.6399641669812997</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6275872538636098</v>
+        <v>0.6274989278538772</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.536530955425329</v>
+        <v>0.537599099712583</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5679281898184469</v>
+        <v>0.5682719431158502</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5759142016530598</v>
+        <v>0.5752301273019134</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.670818574771219</v>
+        <v>0.6691302573853602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5822745973100372</v>
+        <v>0.5820198882104045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6194533612754984</v>
+        <v>0.6178076435469694</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6121004205756769</v>
+        <v>0.609604228827786</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.756418771665463</v>
+        <v>0.7564686923064688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6842456408631297</v>
+        <v>0.6834988813444104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7352391472950612</v>
+        <v>0.7313305308163516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7129317795291819</v>
+        <v>0.7130709659632337</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6834354162326169</v>
+        <v>0.6803297988506584</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5944404725984898</v>
+        <v>0.5942296666802037</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.632899120304672</v>
+        <v>0.6315040464737282</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.62926847960431</v>
+        <v>0.6291171784876907</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7084242140550683</v>
+        <v>0.7073199311721311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6223424603991986</v>
+        <v>0.6232398461152538</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6682860993285177</v>
+        <v>0.6667210671434057</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6536639846071903</v>
+        <v>0.6541016036886033</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.751548615493979</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.7155905601880149</v>
+        <v>0.7155905601880148</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.8416964092521153</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.839403453586379</v>
+        <v>0.8412694467729156</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7583780409451354</v>
+        <v>0.7579335241873342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.766668386223775</v>
+        <v>0.7650661559377251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.748323962758908</v>
+        <v>0.7481696863026273</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8024555133749178</v>
+        <v>0.8012816045533061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7018284020861277</v>
+        <v>0.6989270367395307</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7326891200409975</v>
+        <v>0.7306205934583795</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.697461701001471</v>
+        <v>0.6975450267661089</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8275656074468144</v>
+        <v>0.8280902440880332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7361416849455048</v>
+        <v>0.7369695497111329</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7541684172707501</v>
+        <v>0.7532233648436487</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7288955812408471</v>
+        <v>0.7287076048078214</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8748385596690823</v>
+        <v>0.8771069450944599</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7955700702518695</v>
+        <v>0.795966759891344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8030914208477191</v>
+        <v>0.8020682716608696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7884831420571075</v>
+        <v>0.7868907633156969</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8410350097088489</v>
+        <v>0.8414638913106219</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7439556595117859</v>
+        <v>0.7433887538834134</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7715465393865442</v>
+        <v>0.7713541767300741</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.733506481331101</v>
+        <v>0.7322306930817611</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8550145614496624</v>
+        <v>0.8551124005238336</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7643450662002998</v>
+        <v>0.765114782227524</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7805029748723633</v>
+        <v>0.7813310235817682</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7542247161231543</v>
+        <v>0.7547071106433811</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.7863335082756564</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7243881021610308</v>
+        <v>0.7243881021610309</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8350776085076473</v>
@@ -969,7 +969,7 @@
         <v>0.7890288895443617</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7497197787984698</v>
+        <v>0.7497197787984697</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8009355150424724</v>
+        <v>0.7983988498035818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7296716192379138</v>
+        <v>0.7332194361316258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7527921759663293</v>
+        <v>0.7543982563280716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7396580656654133</v>
+        <v>0.7384322699042885</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7973116851758675</v>
+        <v>0.7965515572356239</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7712149376027913</v>
+        <v>0.7704732475097172</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7520882488936692</v>
+        <v>0.7482868136703967</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6961323065296956</v>
+        <v>0.6923166772607496</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8100860884285589</v>
+        <v>0.8119127599171563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7661655023193233</v>
+        <v>0.7622464612145642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7631040932519451</v>
+        <v>0.7570111017834349</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7276275938713342</v>
+        <v>0.7265404076813319</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8667080547590564</v>
+        <v>0.8683048007966698</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8107816795353627</v>
+        <v>0.8128474010277169</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8251824509141753</v>
+        <v>0.8271280866368865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8069748858169138</v>
+        <v>0.8115698951102556</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.867860639745103</v>
+        <v>0.8662624233905111</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.845844826135621</v>
+        <v>0.8484145838756376</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8207966504459028</v>
+        <v>0.8217029813584401</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7528581746363747</v>
+        <v>0.7540817995271103</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8582589125867571</v>
+        <v>0.8566978417291911</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8206400045312953</v>
+        <v>0.8188851629205222</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8137869933859435</v>
+        <v>0.8130290762288761</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7716529331510865</v>
+        <v>0.7716792895009262</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7675411525650375</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7544785068694262</v>
+        <v>0.7544785068694263</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7596167765213312</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7239872280052881</v>
+        <v>0.726013259444379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7512726474955973</v>
+        <v>0.7536442357206926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7385104014651858</v>
+        <v>0.7385867157874706</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6587828306221921</v>
+        <v>0.6584159489073808</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6976912340062983</v>
+        <v>0.6977637451296146</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6797037499726537</v>
+        <v>0.6780271655856474</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6959072768082624</v>
+        <v>0.6954350224819007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7297432612125876</v>
+        <v>0.7301759790639987</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.711787992687246</v>
+        <v>0.7137200732338559</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7570373829684311</v>
+        <v>0.7560261385211428</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7817802809301417</v>
+        <v>0.7825531103075746</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.769589546414276</v>
+        <v>0.7696175104175543</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6905652876467496</v>
+        <v>0.6895253720717056</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7306605502308948</v>
+        <v>0.7288352833745293</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7048197226818612</v>
+        <v>0.7050306799692372</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7183935464794799</v>
+        <v>0.7184064966942119</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7517053290274207</v>
+        <v>0.7510150396869938</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7323121209154498</v>
+        <v>0.7326326931796407</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>714348</v>
+        <v>714590</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>603607</v>
+        <v>602239</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>503981</v>
+        <v>504959</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>358051</v>
+        <v>359179</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>821128</v>
+        <v>821013</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>716113</v>
+        <v>717538</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>560038</v>
+        <v>560377</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>452669</v>
+        <v>452131</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1561476</v>
+        <v>1557546</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1341502</v>
+        <v>1340915</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1076887</v>
+        <v>1074026</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>824652</v>
+        <v>821289</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>771039</v>
+        <v>771090</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>663164</v>
+        <v>662440</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>553150</v>
+        <v>550209</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>400132</v>
+        <v>400210</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>894199</v>
+        <v>890136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>793405</v>
+        <v>793124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>624106</v>
+        <v>622731</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>494606</v>
+        <v>494487</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1649011</v>
+        <v>1646441</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1433814</v>
+        <v>1435882</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1161780</v>
+        <v>1159059</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>880649</v>
+        <v>881238</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1397895</v>
+        <v>1401002</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1483532</v>
+        <v>1482663</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1588249</v>
+        <v>1584930</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1611596</v>
+        <v>1611263</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1262482</v>
+        <v>1260635</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1229280</v>
+        <v>1224198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1452419</v>
+        <v>1448319</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1467094</v>
+        <v>1467269</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2680168</v>
+        <v>2681867</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2729415</v>
+        <v>2732484</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3057352</v>
+        <v>3053521</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3102970</v>
+        <v>3102169</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1456906</v>
+        <v>1460684</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1556287</v>
+        <v>1557063</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1663704</v>
+        <v>1661585</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1698083</v>
+        <v>1694653</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1323178</v>
+        <v>1323852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1303067</v>
+        <v>1302074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1529447</v>
+        <v>1529065</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1542913</v>
+        <v>1540230</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2769065</v>
+        <v>2769382</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2833985</v>
+        <v>2836839</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3164111</v>
+        <v>3167468</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3210798</v>
+        <v>3212852</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>436457</v>
+        <v>435075</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>351104</v>
+        <v>352811</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>411692</v>
+        <v>412570</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>518906</v>
+        <v>518046</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>379103</v>
+        <v>378741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>353703</v>
+        <v>353363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>413002</v>
+        <v>410914</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>506818</v>
+        <v>504040</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>826619</v>
+        <v>828483</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>720052</v>
+        <v>716369</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>836383</v>
+        <v>829705</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1040215</v>
+        <v>1038661</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>472299</v>
+        <v>473169</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>390133</v>
+        <v>391127</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>451281</v>
+        <v>452345</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>566132</v>
+        <v>569356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>412647</v>
+        <v>411887</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>387931</v>
+        <v>389109</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>450732</v>
+        <v>451230</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>548118</v>
+        <v>549009</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>875775</v>
+        <v>874182</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>771248</v>
+        <v>769599</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>891933</v>
+        <v>891102</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1103153</v>
+        <v>1103191</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2466308</v>
+        <v>2473210</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2532429</v>
+        <v>2540423</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2523051</v>
+        <v>2523312</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2335305</v>
+        <v>2334005</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2454171</v>
+        <v>2454427</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2458846</v>
+        <v>2452781</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4837559</v>
+        <v>4834276</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5026773</v>
+        <v>5029754</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5006668</v>
+        <v>5020258</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2578896</v>
+        <v>2575451</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2635266</v>
+        <v>2637871</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2629230</v>
+        <v>2629326</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2447970</v>
+        <v>2444284</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2570143</v>
+        <v>2563723</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2549704</v>
+        <v>2550467</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4993871</v>
+        <v>4993961</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5178057</v>
+        <v>5173302</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>5151034</v>
+        <v>5153289</v>
       </c>
     </row>
     <row r="20">
